--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122337.9373417095</v>
+        <v>114693.8754876794</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219456</v>
+        <v>33937088.13219457</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10494200.71426641</v>
+        <v>10494200.71426642</v>
       </c>
     </row>
     <row r="9">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.0839105424611</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>119.0839105424611</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="D8" t="n">
-        <v>104.8891084057997</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.1812531179677</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>30.70785528783232</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.0839105424611</v>
+        <v>119.0839105424614</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>17.73413229591667</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809191</v>
+        <v>39.3603752680919</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656963</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>77.76273317180745</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>119.0839105424611</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616405</v>
+        <v>13.56162857616403</v>
       </c>
       <c r="S10" t="n">
-        <v>119.0839105424611</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.0839105424611</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.0839105424611</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>91.32747982963602</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="Y10" t="n">
-        <v>91.32747982963566</v>
+        <v>119.0839105424614</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>39.86811692413151</v>
+        <v>130.1302181394738</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,7 +1387,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,7 +1545,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -1584,10 +1584,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>72.17077767852351</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>43.614161397761</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>244.9043102020997</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>4.502520116205144</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1767,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>77.20378078338656</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1827,10 +1827,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>40.79600181538812</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>204.8426041147484</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>167.7419299937796</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>26.23442655955969</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.7852176492638</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>202.9938507929469</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>197.6313432876036</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>145.1541375251231</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>102.9654098315802</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>234.7898989561962</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>252.4843751595147</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2484,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>53.19117033386377</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>214.5646102646769</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>103.8693873534169</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>23.27209850258845</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>138.7434236076974</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2800,16 +2800,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>267.9314657583903</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>54.31661462074954</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>98.85709760052107</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>351.4503489157801</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>328.5107569703942</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>198.2247425648374</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.2762206011266</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>275.1106372348594</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>16.4831353159892</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>164.8913168910446</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>86.38976318987949</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3511,13 +3511,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>381.3842817018733</v>
       </c>
       <c r="G38" t="n">
-        <v>187.0857998398538</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>124.9643551080474</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>43.97954181326713</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>224.4032842719477</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>352.7693069597025</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3900,22 +3900,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>93.00664472099383</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.4644955258587</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>143.4254984568481</v>
       </c>
       <c r="F44" t="n">
-        <v>405.2689892437367</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4143,13 +4143,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>53.19117033386376</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7335122538376</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.7620855184078</v>
+        <v>250.1002694948342</v>
       </c>
       <c r="C8" t="n">
-        <v>115.4753071926895</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="D8" t="n">
-        <v>9.526712843396886</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="E8" t="n">
-        <v>9.526712843396886</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396886</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396886</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396886</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585576</v>
+        <v>23.57954741585574</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558041</v>
+        <v>55.41632306558046</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318072</v>
+        <v>103.1313969318073</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183097</v>
+        <v>162.3261653183101</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590934</v>
+        <v>228.191750759094</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326585</v>
+        <v>295.1231102326593</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336428</v>
+        <v>358.3244950336438</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455675</v>
+        <v>412.2654147455686</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245018</v>
+        <v>452.7727990245031</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698443</v>
+        <v>476.3356421698458</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698443</v>
+        <v>401.4050834648278</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698443</v>
+        <v>401.4050834648278</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698443</v>
+        <v>401.4050834648278</v>
       </c>
       <c r="V8" t="n">
-        <v>476.3356421698443</v>
+        <v>401.4050834648278</v>
       </c>
       <c r="W8" t="n">
-        <v>476.3356421698443</v>
+        <v>401.4050834648278</v>
       </c>
       <c r="X8" t="n">
-        <v>476.3356421698443</v>
+        <v>370.3870478205528</v>
       </c>
       <c r="Y8" t="n">
-        <v>356.0488638441261</v>
+        <v>250.1002694948342</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>217.8488205730381</v>
+        <v>217.8488205730382</v>
       </c>
       <c r="C9" t="n">
-        <v>217.8488205730381</v>
+        <v>217.8488205730382</v>
       </c>
       <c r="D9" t="n">
-        <v>217.8488205730381</v>
+        <v>217.8488205730382</v>
       </c>
       <c r="E9" t="n">
-        <v>217.8488205730381</v>
+        <v>217.8488205730382</v>
       </c>
       <c r="F9" t="n">
-        <v>134.4649821891997</v>
+        <v>134.4649821891998</v>
       </c>
       <c r="G9" t="n">
-        <v>49.28466765965134</v>
+        <v>49.28466765965136</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396886</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114685</v>
+        <v>42.5004579116045</v>
       </c>
       <c r="J9" t="n">
-        <v>35.39855022437513</v>
+        <v>160.3935293486413</v>
       </c>
       <c r="K9" t="n">
-        <v>67.8072276036911</v>
+        <v>205.5497300437129</v>
       </c>
       <c r="L9" t="n">
-        <v>111.3846938193805</v>
+        <v>249.1271962594025</v>
       </c>
       <c r="M9" t="n">
-        <v>162.2375414767965</v>
+        <v>299.9800439168186</v>
       </c>
       <c r="N9" t="n">
-        <v>214.4363126943334</v>
+        <v>352.1788151343557</v>
       </c>
       <c r="O9" t="n">
-        <v>294.4984377999706</v>
+        <v>399.9304929406886</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8233691018327</v>
+        <v>438.2554242425509</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.4425707328079</v>
+        <v>463.8746258735262</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698443</v>
+        <v>476.3356421698458</v>
       </c>
       <c r="S9" t="n">
-        <v>416.6838142238144</v>
+        <v>476.3356421698458</v>
       </c>
       <c r="T9" t="n">
-        <v>338.1355988987564</v>
+        <v>476.3356421698458</v>
       </c>
       <c r="U9" t="n">
-        <v>217.8488205730381</v>
+        <v>476.3356421698458</v>
       </c>
       <c r="V9" t="n">
-        <v>217.8488205730381</v>
+        <v>356.0488638441271</v>
       </c>
       <c r="W9" t="n">
-        <v>217.8488205730381</v>
+        <v>235.7620855184085</v>
       </c>
       <c r="X9" t="n">
-        <v>217.8488205730381</v>
+        <v>235.7620855184085</v>
       </c>
       <c r="Y9" t="n">
-        <v>217.8488205730381</v>
+        <v>235.7620855184085</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396886</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396886</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396886</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396886</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396886</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396886</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396886</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396886</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="J10" t="n">
-        <v>108.002400301115</v>
+        <v>21.42271513642519</v>
       </c>
       <c r="K10" t="n">
-        <v>127.5511863760669</v>
+        <v>40.97150121137716</v>
       </c>
       <c r="L10" t="n">
-        <v>152.5669021405241</v>
+        <v>65.98721697583447</v>
       </c>
       <c r="M10" t="n">
-        <v>196.4163556467485</v>
+        <v>92.36278178728962</v>
       </c>
       <c r="N10" t="n">
-        <v>314.309427083785</v>
+        <v>210.2558532243264</v>
       </c>
       <c r="O10" t="n">
-        <v>338.0922538360035</v>
+        <v>328.1489246613632</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328079</v>
+        <v>446.0419960984</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698443</v>
+        <v>476.3356421698458</v>
       </c>
       <c r="R10" t="n">
-        <v>462.6370274464463</v>
+        <v>462.6370274464477</v>
       </c>
       <c r="S10" t="n">
-        <v>342.3502491207281</v>
+        <v>462.6370274464477</v>
       </c>
       <c r="T10" t="n">
-        <v>342.3502491207281</v>
+        <v>462.6370274464477</v>
       </c>
       <c r="U10" t="n">
-        <v>222.0634707950098</v>
+        <v>462.6370274464477</v>
       </c>
       <c r="V10" t="n">
-        <v>101.7766924692915</v>
+        <v>462.6370274464477</v>
       </c>
       <c r="W10" t="n">
-        <v>101.7766924692915</v>
+        <v>370.3870478205528</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7766924692915</v>
+        <v>250.1002694948342</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396886</v>
+        <v>129.8134911691155</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1184.56904909225</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="C11" t="n">
-        <v>1184.56904909225</v>
+        <v>1006.021337247617</v>
       </c>
       <c r="D11" t="n">
-        <v>1184.56904909225</v>
+        <v>1006.021337247617</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792596</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X11" t="n">
-        <v>1592.855172792596</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y11" t="n">
-        <v>1184.56904909225</v>
+        <v>1444.163810064194</v>
       </c>
     </row>
     <row r="12">
@@ -5099,37 +5099,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>922.5338374743685</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C13" t="n">
-        <v>749.9721259575934</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D13" t="n">
-        <v>584.0941331591162</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H13" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M13" t="n">
-        <v>818.7256495113488</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954412</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1900.754039422525</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1613.798531292956</v>
+        <v>1651.212474421535</v>
       </c>
       <c r="W13" t="n">
-        <v>1341.772126879247</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="X13" t="n">
-        <v>1341.772126879247</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="Y13" t="n">
-        <v>1114.352456193356</v>
+        <v>1151.766399321934</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.20655154895473</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="C14" t="n">
-        <v>47.20655154895473</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D14" t="n">
-        <v>47.20655154895473</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V14" t="n">
-        <v>1526.868684372189</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W14" t="n">
-        <v>1122.013229783223</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X14" t="n">
-        <v>702.8707663625333</v>
+        <v>1288.770111411529</v>
       </c>
       <c r="Y14" t="n">
-        <v>294.5846426621868</v>
+        <v>880.4839877111824</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.291841223631</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7301297068562</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5442,7 +5442,7 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>828.1746199579906</v>
       </c>
       <c r="M16" t="n">
         <v>1412.355695376305</v>
@@ -5451,10 +5451,10 @@
         <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W16" t="n">
-        <v>1552.738213270316</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.53013062851</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.20655154895472</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="C17" t="n">
-        <v>47.20655154895472</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895472</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895472</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>1849.01926465316</v>
+        <v>2150.424914739524</v>
       </c>
       <c r="V17" t="n">
-        <v>1486.402314586986</v>
+        <v>2150.424914739524</v>
       </c>
       <c r="W17" t="n">
-        <v>1081.546859998019</v>
+        <v>1745.569460150557</v>
       </c>
       <c r="X17" t="n">
-        <v>662.40439657733</v>
+        <v>1745.569460150557</v>
       </c>
       <c r="Y17" t="n">
-        <v>254.1182728769834</v>
+        <v>1337.28333645021</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,13 +5585,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.8524940391951</v>
+        <v>758.6107344189456</v>
       </c>
       <c r="C19" t="n">
-        <v>724.29078252242</v>
+        <v>586.0490229021706</v>
       </c>
       <c r="D19" t="n">
-        <v>558.4127897239428</v>
+        <v>420.1710301036933</v>
       </c>
       <c r="E19" t="n">
-        <v>388.6547859746801</v>
+        <v>250.4130263544305</v>
       </c>
       <c r="F19" t="n">
-        <v>211.9477319364363</v>
+        <v>73.70597231618675</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895472</v>
+        <v>73.70597231618675</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895472</v>
+        <v>73.70597231618675</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728194</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M19" t="n">
-        <v>992.686446150523</v>
+        <v>997.5438780199986</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954412</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>2118.080353351143</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1831.124845221573</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W19" t="n">
-        <v>1559.098440807865</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X19" t="n">
-        <v>1313.706686141277</v>
+        <v>1177.849023823825</v>
       </c>
       <c r="Y19" t="n">
-        <v>1088.671112758182</v>
+        <v>950.4293531379328</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.2588091910869</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C20" t="n">
-        <v>483.1163363745102</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D20" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447736</v>
+        <v>1903.045662401397</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447736</v>
+        <v>1540.428712335223</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.472122858769</v>
+        <v>1135.573257746256</v>
       </c>
       <c r="X20" t="n">
-        <v>1755.844503376341</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y20" t="n">
-        <v>1347.558379675995</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043084</v>
@@ -5834,22 +5834,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q21" t="n">
         <v>1614.947661807679</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>896.8524940391951</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C22" t="n">
-        <v>724.29078252242</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="D22" t="n">
-        <v>558.4127897239428</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E22" t="n">
-        <v>388.6547859746801</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092379</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180194</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2111.895574475627</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1833.50894252437</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1833.50894252437</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.482538110662</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1316.090783444074</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>1088.671112758182</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>446.7092428694776</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C23" t="n">
         <v>446.7092428694776</v>
@@ -5980,10 +5980,10 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
         <v>118.4065018001353</v>
@@ -6013,28 +6013,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V23" t="n">
-        <v>2105.292855064388</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W23" t="n">
-        <v>1700.437400475421</v>
+        <v>1122.013229783222</v>
       </c>
       <c r="X23" t="n">
-        <v>1281.294937054732</v>
+        <v>1122.013229783222</v>
       </c>
       <c r="Y23" t="n">
-        <v>873.0088133543854</v>
+        <v>1122.013229783222</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P24" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q24" t="n">
         <v>1614.947661807679</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.0817647851416</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C25" t="n">
-        <v>443.5200532683665</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D25" t="n">
-        <v>277.6420604698892</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E25" t="n">
-        <v>277.6420604698892</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F25" t="n">
-        <v>100.9350064316454</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G25" t="n">
-        <v>100.9350064316454</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>413.3628026016838</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M25" t="n">
-        <v>997.5438780199985</v>
+        <v>910.9641928553085</v>
       </c>
       <c r="N25" t="n">
-        <v>1567.301592981533</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O25" t="n">
-        <v>2104.736723555076</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>2118.926094568069</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270316</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856608</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041287</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>821.3493674098266</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="C26" t="n">
-        <v>716.4307943255671</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="D26" t="n">
-        <v>716.4307943255671</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E26" t="n">
         <v>716.4307943255671</v>
@@ -6220,25 +6220,25 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
         <v>1775.969506973259</v>
@@ -6250,28 +6250,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2336.820407243101</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2336.820407243101</v>
       </c>
       <c r="U26" t="n">
-        <v>2060.790516184048</v>
+        <v>2336.820407243101</v>
       </c>
       <c r="V26" t="n">
-        <v>2060.790516184048</v>
+        <v>1974.203457176928</v>
       </c>
       <c r="W26" t="n">
-        <v>1655.935061595081</v>
+        <v>1569.348002587961</v>
       </c>
       <c r="X26" t="n">
-        <v>1655.935061595081</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="Y26" t="n">
-        <v>1247.648937894734</v>
+        <v>1150.205539167272</v>
       </c>
     </row>
     <row r="27">
@@ -6299,22 +6299,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>896.8524940391952</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C28" t="n">
-        <v>724.2907825224202</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D28" t="n">
-        <v>558.4127897239429</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E28" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M28" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N28" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1833.50894252437</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.482538110662</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
-        <v>1316.090783444074</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y28" t="n">
-        <v>1088.671112758182</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1889.485634438363</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C29" t="n">
-        <v>1451.343161621786</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D29" t="n">
-        <v>1015.433376796231</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>1015.433376796231</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>587.5659472054385</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G29" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
         <v>2043.069798152528</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>1889.485634438363</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V29" t="n">
-        <v>1889.485634438363</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W29" t="n">
-        <v>1889.485634438363</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X29" t="n">
-        <v>1889.485634438363</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y29" t="n">
-        <v>1889.485634438363</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q30" t="n">
         <v>1614.947661807679</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>859.4385509106165</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C31" t="n">
-        <v>686.8768393938415</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D31" t="n">
-        <v>520.9988465953642</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E31" t="n">
-        <v>520.9988465953642</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="F31" t="n">
-        <v>344.2917925571204</v>
+        <v>266.8129992301227</v>
       </c>
       <c r="G31" t="n">
-        <v>179.5506121696388</v>
+        <v>102.0718188426411</v>
       </c>
       <c r="H31" t="n">
         <v>47.20655154895473</v>
@@ -6621,25 +6621,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092379</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U31" t="n">
-        <v>1937.514407000714</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V31" t="n">
-        <v>1650.558898871144</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W31" t="n">
-        <v>1378.532494457436</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X31" t="n">
-        <v>1278.676840315495</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.257169629604</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1486.402314586986</v>
+        <v>402.2069039891367</v>
       </c>
       <c r="C32" t="n">
-        <v>1048.25984177041</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D32" t="n">
-        <v>1048.25984177041</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E32" t="n">
-        <v>1048.25984177041</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F32" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
         <v>1775.969506973259</v>
@@ -6724,28 +6724,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.402314586986</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W32" t="n">
-        <v>1486.402314586986</v>
+        <v>1655.93506159508</v>
       </c>
       <c r="X32" t="n">
-        <v>1486.402314586986</v>
+        <v>1236.792598174391</v>
       </c>
       <c r="Y32" t="n">
-        <v>1486.402314586986</v>
+        <v>828.5064744740445</v>
       </c>
     </row>
     <row r="33">
@@ -6773,16 +6773,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J33" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L33" t="n">
         <v>551.5786779960906</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>732.1113136517137</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C34" t="n">
-        <v>559.5496021349386</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D34" t="n">
-        <v>393.6716093364613</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
@@ -6870,7 +6870,7 @@
         <v>1412.355695376305</v>
       </c>
       <c r="N34" t="n">
-        <v>1539.854607180195</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O34" t="n">
         <v>1657.620488527956</v>
@@ -6882,28 +6882,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270316</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856608</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>1214.444889620345</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.9299323707007</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2060.790516184048</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="C35" t="n">
-        <v>1622.648043367471</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D35" t="n">
-        <v>1186.738258541916</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>752.963513700211</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>325.0960841094188</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G35" t="n">
         <v>47.20655154895474</v>
@@ -6940,10 +6940,10 @@
         <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867032</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2343.677945815425</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662534</v>
+        <v>2343.677945815425</v>
       </c>
       <c r="U35" t="n">
-        <v>2060.790516184048</v>
+        <v>2084.607254336939</v>
       </c>
       <c r="V35" t="n">
-        <v>2060.790516184048</v>
+        <v>1721.990304270765</v>
       </c>
       <c r="W35" t="n">
-        <v>2060.790516184048</v>
+        <v>1317.134849681798</v>
       </c>
       <c r="X35" t="n">
-        <v>2060.790516184048</v>
+        <v>1317.134849681798</v>
       </c>
       <c r="Y35" t="n">
-        <v>2060.790516184048</v>
+        <v>908.8487259814518</v>
       </c>
     </row>
     <row r="36">
@@ -6998,13 +6998,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
         <v>79.1492015823585</v>
@@ -7013,13 +7013,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1086.287015455386</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>443.520053268367</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>266.8129992301232</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
@@ -7101,19 +7101,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
-        <v>818.7256495113488</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N37" t="n">
-        <v>1120.185357954413</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7128,19 +7128,19 @@
         <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>2118.080353351143</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1831.124845221574</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W37" t="n">
-        <v>1559.098440807865</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X37" t="n">
-        <v>1313.706686141278</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>1086.287015455386</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1538.101794175671</v>
+        <v>1740.270202216502</v>
       </c>
       <c r="C38" t="n">
-        <v>1099.959321359094</v>
+        <v>1302.127729399926</v>
       </c>
       <c r="D38" t="n">
-        <v>664.0495365335387</v>
+        <v>866.21794457437</v>
       </c>
       <c r="E38" t="n">
-        <v>664.0495365335387</v>
+        <v>432.4431997326652</v>
       </c>
       <c r="F38" t="n">
-        <v>236.1821069427464</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895473</v>
@@ -7171,25 +7171,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
         <v>2043.069798152528</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V38" t="n">
-        <v>1957.24425759636</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W38" t="n">
-        <v>1957.24425759636</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X38" t="n">
-        <v>1538.101794175671</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y38" t="n">
-        <v>1538.101794175671</v>
+        <v>1740.270202216502</v>
       </c>
     </row>
     <row r="39">
@@ -7253,10 +7253,10 @@
         <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L39" t="n">
         <v>551.5786779960906</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.291841223631</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7301297068562</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M40" t="n">
-        <v>1236.93553127931</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1364.434443083199</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O40" t="n">
         <v>1657.620488527956</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>2315.903797838376</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>2028.948289708806</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W40" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>701.7439652528254</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="C41" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D41" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447736</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>1955.472122858769</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X41" t="n">
-        <v>1536.32965943808</v>
+        <v>725.214226705391</v>
       </c>
       <c r="Y41" t="n">
-        <v>1128.043535737733</v>
+        <v>316.9281030050443</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
         <v>81.42328772043084</v>
@@ -7493,22 +7493,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q42" t="n">
         <v>1614.947661807679</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>896.8524940391951</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C43" t="n">
-        <v>724.29078252242</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D43" t="n">
-        <v>558.4127897239428</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898316</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L43" t="n">
-        <v>1019.751453776091</v>
+        <v>481.9462364092379</v>
       </c>
       <c r="M43" t="n">
-        <v>1160.879221014855</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N43" t="n">
-        <v>1288.378132818744</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O43" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2120.464450653939</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>2120.464450653939</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1833.50894252437</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.482538110662</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1316.090783444074</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>1088.671112758182</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1997.710627381563</v>
+        <v>1066.13305005659</v>
       </c>
       <c r="C44" t="n">
-        <v>1559.568154564986</v>
+        <v>627.9905772400134</v>
       </c>
       <c r="D44" t="n">
-        <v>1559.568154564986</v>
+        <v>192.0807924144579</v>
       </c>
       <c r="E44" t="n">
-        <v>1125.793409723281</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
         <v>1775.969506973259</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X44" t="n">
-        <v>1997.710627381563</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y44" t="n">
-        <v>1997.710627381563</v>
+        <v>1492.432620541498</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
         <v>341.0245550495863</v>
@@ -7718,10 +7718,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
         <v>81.42328772043084</v>
@@ -7733,10 +7733,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>894.4683967363981</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C46" t="n">
-        <v>721.906685219623</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D46" t="n">
-        <v>556.0286924211457</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="E46" t="n">
-        <v>386.270688671883</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>209.5636346336392</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
@@ -7812,16 +7812,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>733.422710770687</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1317.603786189002</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1887.361501150536</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>2005.127382498297</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
         <v>2105.896438675981</v>
@@ -7830,28 +7830,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
         <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>2118.080353351143</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1831.124845221573</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1559.098440807865</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1313.706686141277</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1086.287015455385</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
   </sheetData>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>99.93061208465505</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>12.8762861775308</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>32.63681545384287</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946635</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8619,19 +8619,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>17.65039262097916</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>93.07541273183006</v>
+        <v>93.07541273183034</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>95.06085321698811</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>98.52803488912366</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340655</v>
+        <v>16.36781968801421</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
-        <v>175.7179764032062</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>141.4680432173446</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464598</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>175.7179764032062</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>69.27619576520556</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>69.27619576520624</v>
       </c>
       <c r="M22" t="n">
-        <v>177.1920849464593</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>69.27619576520601</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M28" t="n">
-        <v>177.1920849464598</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042868</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>177.1920849464597</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>175.7179764032066</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>177.1920849464593</v>
+        <v>264.6463123855406</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>69.27619576520624</v>
       </c>
       <c r="M43" t="n">
-        <v>10.62967161639875</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>45.75904403825018</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.9526642375976</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>314.6771375459498</v>
+        <v>314.6771375459494</v>
       </c>
       <c r="D8" t="n">
-        <v>326.6615785715002</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -23038,7 +23038,7 @@
         <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>282.3584801445919</v>
+        <v>163.2745696021305</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796773</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
@@ -23086,10 +23086,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>384.2431834986501</v>
       </c>
       <c r="Y8" t="n">
-        <v>285.119351920882</v>
+        <v>285.1193519208816</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>102.3567297730489</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
@@ -23150,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656962</v>
       </c>
       <c r="T9" t="n">
-        <v>50.29699016355123</v>
+        <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>55.47593365518706</v>
+        <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>78.0424322161592</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>64.38561618167648</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -23193,13 +23193,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.7654023385416</v>
+        <v>44.68149179608017</v>
       </c>
       <c r="H10" t="n">
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742789</v>
+        <v>82.66219243742788</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>35.6031071884386</v>
+        <v>154.6870177308997</v>
       </c>
       <c r="T10" t="n">
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577343</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058128</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>177.9786605399354</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>123.8539265774602</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.8179941493971</v>
+        <v>106.0615634365714</v>
       </c>
     </row>
     <row r="11">
@@ -23260,13 +23260,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>389.5688804691562</v>
+        <v>299.3067792538139</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>203.4319879532209</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>240.4717916505128</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.132264577959</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23503,13 +23503,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>410.4485186702773</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>93.63231361822075</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>202.1418353045335</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>217.1939706653103</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>88.73805456992162</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>36.22990713855474</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.360256329769015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,10 +23983,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>53.48613377075432</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>217.3196954988788</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>19.06507534536945</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>136.8593420240473</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>187.2466758238625</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>106.506405405997</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>77.82944968061348</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>69.52134278359696</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>329.891660734994</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>16.78960758476255</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>145.3425294405764</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>127.5761986489273</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>146.9259375451998</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>76.70400539372773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>144.0807395194006</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>82.31069917263085</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24928,13 +24928,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>95.07799832449012</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25095,7 +25095,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.7130945550843</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.8692533779062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>120.3970271724582</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>23.57857077136179</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>5.944777510562716</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>76.70400539372727</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>42.20447359301102</v>
       </c>
       <c r="G38" t="n">
-        <v>208.4218645674638</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>45.87173929355994</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>231.6232238184773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>209.3577638164633</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25639,13 +25639,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>62.18173182677992</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>75.05377899077628</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>2.360256329768694</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>286.0114989364396</v>
       </c>
       <c r="F44" t="n">
-        <v>18.31976605114761</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -25924,16 +25924,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>114.8692533779063</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.360256329769161</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>89192.78230100362</v>
+        <v>89192.78230100388</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>393557.8204430754</v>
+        <v>393557.8204430756</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>393557.8204430754</v>
+        <v>393557.8204430755</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>393557.8204430754</v>
+        <v>393557.8204430755</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>393557.8204430756</v>
+        <v>393557.8204430754</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>393557.8204430756</v>
+        <v>393557.8204430755</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>393557.8204430756</v>
+        <v>393557.8204430755</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>393557.8204430754</v>
+        <v>393557.8204430755</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>393557.8204430754</v>
+        <v>393557.8204430755</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>38163.29078646965</v>
+        <v>38163.29078646977</v>
       </c>
       <c r="E2" t="n">
         <v>173027.328430899</v>
@@ -26340,22 +26340,22 @@
         <v>173027.328430899</v>
       </c>
       <c r="K2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
       <c r="L2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308989</v>
       </c>
       <c r="M2" t="n">
         <v>173027.3284308991</v>
       </c>
       <c r="N2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="O2" t="n">
         <v>173027.328430899</v>
       </c>
       <c r="P2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.467573058</v>
+        <v>117708.4675730584</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.245018044</v>
+        <v>439858.2450180437</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310202</v>
+        <v>30139.06600310208</v>
       </c>
       <c r="M3" t="n">
         <v>117374.581559748</v>
@@ -26423,43 +26423,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6030.684378526883</v>
+        <v>6030.684378526897</v>
       </c>
       <c r="E4" t="n">
         <v>16511.4186966076</v>
       </c>
       <c r="F4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.41869660762</v>
       </c>
       <c r="G4" t="n">
         <v>16511.4186966076</v>
       </c>
       <c r="H4" t="n">
-        <v>16511.4186966076</v>
+        <v>16511.41869660761</v>
       </c>
       <c r="I4" t="n">
         <v>16511.4186966076</v>
       </c>
       <c r="J4" t="n">
+        <v>16511.4186966076</v>
+      </c>
+      <c r="K4" t="n">
         <v>16511.41869660761</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>16511.4186966076</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>16511.41869660762</v>
+      </c>
+      <c r="N4" t="n">
         <v>16511.41869660761</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>16511.41869660761</v>
       </c>
-      <c r="N4" t="n">
-        <v>16511.4186966076</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16511.4186966076</v>
-      </c>
       <c r="P4" t="n">
-        <v>16511.4186966076</v>
+        <v>16511.41869660761</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239238</v>
+        <v>42922.5622723924</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-128498.4234375076</v>
+        <v>-129665.3222336591</v>
       </c>
       <c r="E6" t="n">
-        <v>-329393.4164933904</v>
+        <v>-329947.2969366121</v>
       </c>
       <c r="F6" t="n">
-        <v>110464.8285246536</v>
+        <v>109910.9480814317</v>
       </c>
       <c r="G6" t="n">
-        <v>110464.8285246536</v>
+        <v>109910.9480814317</v>
       </c>
       <c r="H6" t="n">
-        <v>110464.8285246536</v>
+        <v>109910.9480814317</v>
       </c>
       <c r="I6" t="n">
-        <v>110464.8285246536</v>
+        <v>109910.9480814317</v>
       </c>
       <c r="J6" t="n">
-        <v>110464.8285246536</v>
+        <v>109910.9480814317</v>
       </c>
       <c r="K6" t="n">
-        <v>110464.8285246536</v>
+        <v>109910.9480814317</v>
       </c>
       <c r="L6" t="n">
-        <v>80325.7625215516</v>
+        <v>79771.88207832949</v>
       </c>
       <c r="M6" t="n">
-        <v>-6909.753035094356</v>
+        <v>-7463.633478316226</v>
       </c>
       <c r="N6" t="n">
-        <v>110464.8285246537</v>
+        <v>109910.9480814317</v>
       </c>
       <c r="O6" t="n">
-        <v>110464.8285246536</v>
+        <v>109910.9480814317</v>
       </c>
       <c r="P6" t="n">
-        <v>110464.8285246536</v>
+        <v>109910.9480814318</v>
       </c>
     </row>
   </sheetData>
@@ -26743,16 +26743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480487</v>
+        <v>94.25048217480517</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932211</v>
@@ -26779,7 +26779,7 @@
         <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26795,31 +26795,31 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424611</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="E4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="F4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="G4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>590.081894361934</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>590.081894361934</v>
-      </c>
-      <c r="I4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="J4" t="n">
-        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619342</v>
@@ -26828,10 +26828,10 @@
         <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480487</v>
+        <v>94.25048217480517</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184162</v>
+        <v>372.451445918416</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424611</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194731</v>
+        <v>470.9979838194728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424611</v>
+        <v>119.0839105424613</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194732</v>
+        <v>470.997983819473</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424611</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194731</v>
+        <v>470.9979838194728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529841</v>
+        <v>0.3788964107529853</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866624</v>
+        <v>3.880372866624012</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555443</v>
+        <v>14.60740387555448</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214612</v>
+        <v>32.15835924214622</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931994</v>
+        <v>48.1970443093201</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990159</v>
+        <v>59.79269533990178</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462997</v>
+        <v>66.53089438463019</v>
       </c>
       <c r="N8" t="n">
-        <v>67.6074338116819</v>
+        <v>67.60743381168211</v>
       </c>
       <c r="O8" t="n">
-        <v>63.8397826272569</v>
+        <v>63.83978262725711</v>
       </c>
       <c r="P8" t="n">
-        <v>54.4857774867926</v>
+        <v>54.48577748679277</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670134</v>
+        <v>40.91654977670147</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196216</v>
+        <v>23.80085166196223</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033634</v>
+        <v>8.634101960033663</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071189</v>
+        <v>1.658619038071194</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023873</v>
+        <v>0.03031171286023882</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.202727452225052</v>
+        <v>0.2027274522250526</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857739</v>
+        <v>1.957920393857745</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888853</v>
+        <v>6.979870613888875</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780634</v>
+        <v>19.1532984578064</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688483</v>
+        <v>32.73603775688493</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211052</v>
+        <v>44.01764264211067</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526865</v>
+        <v>51.36651278526881</v>
       </c>
       <c r="N9" t="n">
-        <v>52.7260315328656</v>
+        <v>52.72603153286578</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619471</v>
+        <v>48.23401798619487</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006278</v>
+        <v>38.7120518200629</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542945</v>
+        <v>25.87798144542953</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779753</v>
+        <v>12.58688514779757</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531117</v>
+        <v>3.765573509531129</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457136</v>
+        <v>0.8171338973457163</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322711</v>
+        <v>0.01333733238322715</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889924</v>
+        <v>0.1699598858889929</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540315</v>
+        <v>1.51109789454032</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643518</v>
+        <v>5.111157295643534</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235176</v>
+        <v>12.0161639323518</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055747</v>
+        <v>19.74624856055754</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207802</v>
+        <v>25.2683997620781</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803541</v>
+        <v>26.64198465803549</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063101</v>
+        <v>26.00849781063109</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547322</v>
+        <v>24.0230573254733</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333776</v>
+        <v>20.55587565333783</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839553</v>
+        <v>14.23182280839558</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517783</v>
+        <v>7.642014505517807</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96193728408362</v>
+        <v>2.96193728408363</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075127</v>
+        <v>0.726192239707515</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308685</v>
+        <v>0.009270539230308714</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,40 +32232,40 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699007</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.6072676879467</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
@@ -32493,19 +32493,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,34 +32548,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32584,7 +32584,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116989</v>
@@ -32642,16 +32642,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,34 +32785,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
         <v>316.116681354841</v>
@@ -32967,19 +32967,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -33049,7 +33049,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
@@ -33058,7 +33058,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
         <v>97.77787936116989</v>
@@ -33116,16 +33116,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
         <v>316.116681354841</v>
@@ -33204,19 +33204,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,34 +33259,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33295,7 +33295,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
@@ -33353,16 +33353,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
         <v>316.116681354841</v>
@@ -33441,19 +33441,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -33523,7 +33523,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33532,7 +33532,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
         <v>97.77787936116989</v>
@@ -33590,16 +33590,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916785</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562338</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
         <v>316.116681354841</v>
@@ -33915,19 +33915,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34006,7 +34006,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
         <v>97.77787936116989</v>
@@ -34064,16 +34064,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -34143,28 +34143,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T41" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,34 +34207,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
@@ -34243,7 +34243,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
         <v>97.77787936116989</v>
@@ -34301,16 +34301,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642304</v>
+        <v>14.19478239642308</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214612</v>
+        <v>32.15835924214619</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931994</v>
+        <v>48.19704430932009</v>
       </c>
       <c r="L8" t="n">
-        <v>59.7926953399016</v>
+        <v>59.7926953399018</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462996</v>
+        <v>66.53089438463019</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168191</v>
+        <v>67.60743381168209</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725691</v>
+        <v>63.83978262725714</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679259</v>
+        <v>54.48577748679276</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670134</v>
+        <v>40.91654977670146</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196216</v>
+        <v>23.80085166196227</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888851</v>
+        <v>33.30681320020968</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780634</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688483</v>
+        <v>45.61232393441574</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211053</v>
+        <v>44.01764264211067</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526864</v>
+        <v>51.36651278526881</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286559</v>
+        <v>52.72603153286576</v>
       </c>
       <c r="O9" t="n">
-        <v>80.87083344003759</v>
+        <v>48.23401798619489</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006275</v>
+        <v>38.71205182006292</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542944</v>
+        <v>25.87798144542955</v>
       </c>
       <c r="R9" t="n">
-        <v>119.0839105424611</v>
+        <v>12.58688514779755</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143243</v>
+        <v>12.0161639323518</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055748</v>
+        <v>19.74624856055754</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207802</v>
+        <v>25.2683997620781</v>
       </c>
       <c r="M10" t="n">
-        <v>44.29237727901457</v>
+        <v>26.6419846580355</v>
       </c>
       <c r="N10" t="n">
-        <v>119.0839105424611</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547325</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333775</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424611</v>
+        <v>30.59964249640979</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35497,10 +35497,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811317</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>304.5047560030946</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -35652,16 +35652,16 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>266.5900650540092</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785867</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35904,7 +35904,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.6072676879467</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -36044,25 +36044,25 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>307.6416050279835</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>171.0631211972091</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,28 +36117,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.076641276667</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36220,7 +36220,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36281,28 +36281,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>194.3982176018708</v>
       </c>
       <c r="M22" t="n">
-        <v>309.1157135712365</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -36372,10 +36372,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36457,7 +36457,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116988</v>
@@ -36524,22 +36524,22 @@
         <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>171.0631211972095</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>227.2024143463627</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36612,13 +36612,13 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36688,7 +36688,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M28" t="n">
-        <v>309.1157135712369</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36910,13 +36910,13 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36931,7 +36931,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409514</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,10 +37083,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37235,7 +37235,7 @@
         <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>309.1157135712369</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998884</v>
@@ -37250,7 +37250,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37326,7 +37326,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
         <v>117.855135640546</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916785</v>
+        <v>34.56235976916792</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37396,10 +37396,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
@@ -37469,22 +37469,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>304.5047560030951</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,10 +37557,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37621,10 +37621,10 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
@@ -37715,16 +37715,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>296.1475206512691</v>
+        <v>383.6017480903504</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -37797,7 +37797,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37879,7 +37879,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233622</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>194.3982176018708</v>
       </c>
       <c r="M43" t="n">
-        <v>142.553300241176</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
@@ -38022,7 +38022,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,7 +38034,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38107,7 +38107,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
@@ -38180,19 +38180,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>170.8810658749147</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
         <v>240.36368292423</v>
